--- a/temp.xlsx
+++ b/temp.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="396">
   <si>
     <t>Sentence[</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,6 +1301,13 @@
   </si>
   <si>
     <t>願你的典章幫助我！</t>
+  </si>
+  <si>
+    <t>你的公義永遠長存；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的律法盡都真實。</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7329,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" ref="F271:F334" si="5">A271&amp;+B271&amp;+C271&amp;+D271&amp;+E271</f>
+        <f t="shared" ref="F271:F335" si="5">A271&amp;+B271&amp;+C271&amp;+D271&amp;+E271</f>
         <v>Sentence[270] = "時常看重你的律例。";</v>
       </c>
     </row>
@@ -8562,14 +8569,14 @@
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="5"/>
-        <v>Sentence[329] = "你的公義永遠長存；你的律法盡都真實。";</v>
+        <v>Sentence[329] = "你的公義永遠長存；";</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -8583,14 +8590,14 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="5"/>
-        <v>Sentence[330] = "我遭遇患難愁苦，";</v>
+        <f t="shared" ref="F331" si="6">A331&amp;+B331&amp;+C331&amp;+D331&amp;+E331</f>
+        <v>Sentence[330] = "你的律法盡都真實。";</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8604,14 +8611,14 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="5"/>
-        <v>Sentence[331] = "你的命令卻是我所喜愛的。";</v>
+        <v>Sentence[331] = "我遭遇患難愁苦，";</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8625,14 +8632,14 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>124</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="5"/>
-        <v>Sentence[332] = "你的法度永遠是公義的；";</v>
+        <v>Sentence[332] = "你的命令卻是我所喜愛的。";</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8646,14 +8653,14 @@
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="5"/>
-        <v>Sentence[333] = "求你賜我悟性";</v>
+        <v>Sentence[333] = "你的法度永遠是公義的；";</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8667,14 +8674,14 @@
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
       </c>
       <c r="F335" t="str">
-        <f t="shared" ref="F335:F360" si="6">A335&amp;+B335&amp;+C335&amp;+D335&amp;+E335</f>
-        <v>Sentence[334] = "我就活了。";</v>
+        <f t="shared" si="5"/>
+        <v>Sentence[334] = "求你賜我悟性";</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -8688,14 +8695,14 @@
         <v>1</v>
       </c>
       <c r="D336" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E336" t="s">
         <v>2</v>
       </c>
       <c r="F336" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[335] = "耶和華啊，";</v>
+        <f t="shared" ref="F336:F361" si="7">A336&amp;+B336&amp;+C336&amp;+D336&amp;+E336</f>
+        <v>Sentence[335] = "我就活了。";</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -8709,14 +8716,14 @@
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>368</v>
+        <v>150</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[336] = "我一心呼籲你；";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[336] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -8730,14 +8737,14 @@
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[337] = "求你應允我，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[337] = "我一心呼籲你；";</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8751,14 +8758,14 @@
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[338] = "我必謹守你的律例！";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[338] = "求你應允我，";</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8772,14 +8779,14 @@
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[339] = "我向你呼籲，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[339] = "我必謹守你的律例！";</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8793,14 +8800,14 @@
         <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[340] = "求你救我！";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[340] = "我向你呼籲，";</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -8814,14 +8821,14 @@
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E342" t="s">
         <v>2</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[341] = "我要遵守你的法度。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[341] = "求你救我！";</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8835,14 +8842,14 @@
         <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[342] = "我趁天未亮呼求；";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[342] = "我要遵守你的法度。";</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8856,14 +8863,14 @@
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[343] = "我仰望了你的言語。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[343] = "我趁天未亮呼求；";</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8877,14 +8884,14 @@
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="E345" t="s">
         <v>2</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[344] = "我趁夜更未換將眼睜開，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[344] = "我仰望了你的言語。";</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -8898,14 +8905,14 @@
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[345] = "為要思想你的話語。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[345] = "我趁夜更未換將眼睜開，";</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8919,14 +8926,14 @@
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="E347" t="s">
         <v>2</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[346] = "求你照你的慈愛聽我的聲音；";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[346] = "為要思想你的話語。";</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8940,14 +8947,14 @@
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E348" t="s">
         <v>2</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[347] = "耶和華啊，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[347] = "求你照你的慈愛聽我的聲音；";</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -8961,14 +8968,14 @@
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="E349" t="s">
         <v>2</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[348] = "求你照你的典章將我救活！";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[348] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -8982,14 +8989,14 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="E350" t="s">
         <v>2</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[349] = "追求奸惡的人臨近了；";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[349] = "求你照你的典章將我救活！";</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,14 +9010,14 @@
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E351" t="s">
         <v>2</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[350] = "他們遠離你的律法。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[350] = "追求奸惡的人臨近了；";</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -9024,14 +9031,14 @@
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="E352" t="s">
         <v>2</v>
       </c>
       <c r="F352" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[351] = "耶和華啊，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[351] = "他們遠離你的律法。";</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9045,14 +9052,14 @@
         <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>378</v>
+        <v>150</v>
       </c>
       <c r="E353" t="s">
         <v>2</v>
       </c>
       <c r="F353" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[352] = "你與我相近；";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[352] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -9066,14 +9073,14 @@
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E354" t="s">
         <v>2</v>
       </c>
       <c r="F354" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[353] = "你一切的命令盡都真實！";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[353] = "你與我相近；";</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -9087,14 +9094,14 @@
         <v>1</v>
       </c>
       <c r="D355" t="s">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="E355" t="s">
         <v>2</v>
       </c>
       <c r="F355" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[354] = "我因學你的法度，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[354] = "你一切的命令盡都真實！";</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9108,14 +9115,14 @@
         <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="E356" t="s">
         <v>2</v>
       </c>
       <c r="F356" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[355] = "久已知道是你永遠立定的。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[355] = "我因學你的法度，";</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -9129,14 +9136,14 @@
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="E357" t="s">
         <v>2</v>
       </c>
       <c r="F357" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[356] = "求你看顧我的苦難，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[356] = "久已知道是你永遠立定的。";</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9150,14 +9157,14 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
       </c>
       <c r="F358" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[357] = "搭救我，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[357] = "求你看顧我的苦難，";</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9171,14 +9178,14 @@
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
       </c>
       <c r="F359" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[358] = "因我不忘記你的律法。";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[358] = "搭救我，";</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -9192,14 +9199,14 @@
         <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="E360" t="s">
         <v>2</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" si="6"/>
-        <v>Sentence[359] = "求你為我辨屈，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[359] = "因我不忘記你的律法。";</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -9213,14 +9220,14 @@
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
       </c>
       <c r="F361" t="str">
-        <f t="shared" ref="F361:F414" si="7">A361&amp;+B361&amp;+C361&amp;+D361&amp;+E361</f>
-        <v>Sentence[360] = "救贖我，";</v>
+        <f t="shared" si="7"/>
+        <v>Sentence[360] = "求你為我辨屈，";</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,14 +9241,14 @@
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="E362" t="s">
         <v>2</v>
       </c>
       <c r="F362" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[361] = "照你的話將我救活。";</v>
+        <f t="shared" ref="F362:F415" si="8">A362&amp;+B362&amp;+C362&amp;+D362&amp;+E362</f>
+        <v>Sentence[361] = "救贖我，";</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -9255,14 +9262,14 @@
         <v>1</v>
       </c>
       <c r="D363" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="E363" t="s">
         <v>2</v>
       </c>
       <c r="F363" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[362] = "救恩遠離惡人，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[362] = "照你的話將我救活。";</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -9276,14 +9283,14 @@
         <v>1</v>
       </c>
       <c r="D364" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
       </c>
       <c r="F364" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[363] = "因為他們不尋求你的律例。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[363] = "救恩遠離惡人，";</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -9297,14 +9304,14 @@
         <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E365" t="s">
         <v>2</v>
       </c>
       <c r="F365" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[364] = "耶和華啊，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[364] = "因為他們不尋求你的律例。";</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -9318,14 +9325,14 @@
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
       </c>
       <c r="F366" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[365] = "你的慈悲本為大；";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[365] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9339,14 +9346,14 @@
         <v>1</v>
       </c>
       <c r="D367" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E367" t="s">
         <v>2</v>
       </c>
       <c r="F367" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[366] = "求你照你的典章將我救活。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[366] = "你的慈悲本為大；";</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -9360,14 +9367,14 @@
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="E368" t="s">
         <v>2</v>
       </c>
       <c r="F368" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[367] = "逼迫我的，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[367] = "求你照你的典章將我救活。";</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -9381,14 +9388,14 @@
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="E369" t="s">
         <v>2</v>
       </c>
       <c r="F369" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[368] = "抵擋我的，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[368] = "逼迫我的，";</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -9402,14 +9409,14 @@
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E370" t="s">
         <v>2</v>
       </c>
       <c r="F370" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[369] = "很多，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[369] = "抵擋我的，";</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,14 +9430,14 @@
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="E371" t="s">
         <v>2</v>
       </c>
       <c r="F371" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[370] = "我卻沒有偏離你的法度。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[370] = "很多，";</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -9444,14 +9451,14 @@
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="E372" t="s">
         <v>2</v>
       </c>
       <c r="F372" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[371] = "我看見奸惡的人就甚憎惡，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[371] = "我卻沒有偏離你的法度。";</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -9465,14 +9472,14 @@
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="E373" t="s">
         <v>2</v>
       </c>
       <c r="F373" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[372] = "因為他們不遵守你的話。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[372] = "我看見奸惡的人就甚憎惡，";</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -9486,14 +9493,14 @@
         <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>382</v>
+        <v>134</v>
       </c>
       <c r="E374" t="s">
         <v>2</v>
       </c>
       <c r="F374" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[373] = "你看我怎樣愛你的訓詞！";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[373] = "因為他們不遵守你的話。";</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -9507,14 +9514,14 @@
         <v>1</v>
       </c>
       <c r="D375" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E375" t="s">
         <v>2</v>
       </c>
       <c r="F375" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[374] = "耶和華啊，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[374] = "你看我怎樣愛你的訓詞！";</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -9528,14 +9535,14 @@
         <v>1</v>
       </c>
       <c r="D376" t="s">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="E376" t="s">
         <v>2</v>
       </c>
       <c r="F376" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[375] = "求你照你的慈愛將我救活！";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[375] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -9549,14 +9556,14 @@
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>384</v>
+        <v>135</v>
       </c>
       <c r="E377" t="s">
         <v>2</v>
       </c>
       <c r="F377" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[376] = "你話的總綱是真實；";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[376] = "求你照你的慈愛將我救活！";</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -9570,14 +9577,14 @@
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E378" t="s">
         <v>2</v>
       </c>
       <c r="F378" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[377] = "你一切公義的典章是永遠長存。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[377] = "你話的總綱是真實；";</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -9591,14 +9598,14 @@
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="E379" t="s">
         <v>2</v>
       </c>
       <c r="F379" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[378] = "首領無故地逼迫我，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[378] = "你一切公義的典章是永遠長存。";</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -9612,14 +9619,14 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="E380" t="s">
         <v>2</v>
       </c>
       <c r="F380" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[379] = "但我的心畏懼你的言語。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[379] = "首領無故地逼迫我，";</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -9633,14 +9640,14 @@
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="E381" t="s">
         <v>2</v>
       </c>
       <c r="F381" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[380] = "我喜愛你的話，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[380] = "但我的心畏懼你的言語。";</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -9654,14 +9661,14 @@
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="E382" t="s">
         <v>2</v>
       </c>
       <c r="F382" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[381] = "好像人得了許多擄物。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[381] = "我喜愛你的話，";</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -9675,14 +9682,14 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="E383" t="s">
         <v>2</v>
       </c>
       <c r="F383" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[382] = "謊話是我所恨惡所憎嫌的；";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[382] = "好像人得了許多擄物。";</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9696,14 +9703,14 @@
         <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E384" t="s">
         <v>2</v>
       </c>
       <c r="F384" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[383] = "惟你的律法是我所愛的。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[383] = "謊話是我所恨惡所憎嫌的；";</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -9717,14 +9724,14 @@
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="E385" t="s">
         <v>2</v>
       </c>
       <c r="F385" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[384] = "我因你公義的典章一天七次讚美你。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[384] = "惟你的律法是我所愛的。";</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9738,14 +9745,14 @@
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="E386" t="s">
         <v>2</v>
       </c>
       <c r="F386" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[385] = "愛你律法的人有大平安，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[385] = "我因你公義的典章一天七次讚美你。";</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -9759,14 +9766,14 @@
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="E387" t="s">
         <v>2</v>
       </c>
       <c r="F387" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[386] = "什麼都不能使他們絆腳。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[386] = "愛你律法的人有大平安，";</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9780,14 +9787,14 @@
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E388" t="s">
         <v>2</v>
       </c>
       <c r="F388" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[387] = "耶和華啊，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[387] = "什麼都不能使他們絆腳。";</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9801,14 +9808,14 @@
         <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="E389" t="s">
         <v>2</v>
       </c>
       <c r="F389" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[388] = "我仰望了你的救恩，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[388] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9822,14 +9829,14 @@
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="E390" t="s">
         <v>2</v>
       </c>
       <c r="F390" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[389] = "遵行了你的命令。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[389] = "我仰望了你的救恩，";</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,14 +9850,14 @@
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>388</v>
+        <v>139</v>
       </c>
       <c r="E391" t="s">
         <v>2</v>
       </c>
       <c r="F391" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[390] = "我心裡守了你的法度；";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[390] = "遵行了你的命令。";</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9864,14 +9871,14 @@
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E392" t="s">
         <v>2</v>
       </c>
       <c r="F392" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[391] = "這法度我甚喜愛。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[391] = "我心裡守了你的法度；";</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9885,14 +9892,14 @@
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="E393" t="s">
         <v>2</v>
       </c>
       <c r="F393" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[392] = "我遵守了你的訓詞和法度，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[392] = "這法度我甚喜愛。";</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9906,14 +9913,14 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="E394" t="s">
         <v>2</v>
       </c>
       <c r="F394" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[393] = "因我一切所行的都在你面前。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[393] = "我遵守了你的訓詞和法度，";</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9927,14 +9934,14 @@
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E395" t="s">
         <v>2</v>
       </c>
       <c r="F395" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[394] = "耶和華啊，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[394] = "因我一切所行的都在你面前。";</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -9948,14 +9955,14 @@
         <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="E396" t="s">
         <v>2</v>
       </c>
       <c r="F396" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[395] = "願我的呼籲達到你面前，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[395] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -9969,14 +9976,14 @@
         <v>1</v>
       </c>
       <c r="D397" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="E397" t="s">
         <v>2</v>
       </c>
       <c r="F397" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[396] = "照你的話賜我悟性。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[396] = "願我的呼籲達到你面前，";</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -9990,14 +9997,14 @@
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="E398" t="s">
         <v>2</v>
       </c>
       <c r="F398" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[397] = "願我的懇求達到你面前，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[397] = "照你的話賜我悟性。";</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -10011,14 +10018,14 @@
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="E399" t="s">
         <v>2</v>
       </c>
       <c r="F399" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[398] = "照你的話搭救我。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[398] = "願我的懇求達到你面前，";</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -10032,14 +10039,14 @@
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="E400" t="s">
         <v>2</v>
       </c>
       <c r="F400" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[399] = "願我的嘴發出讚美的話，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[399] = "照你的話搭救我。";</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -10053,14 +10060,14 @@
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="E401" t="s">
         <v>2</v>
       </c>
       <c r="F401" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[400] = "因為你將律例教訓我。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[400] = "願我的嘴發出讚美的話，";</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -10074,14 +10081,14 @@
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="E402" t="s">
         <v>2</v>
       </c>
       <c r="F402" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[401] = "願我的舌頭歌唱你的話，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[401] = "因為你將律例教訓我。";</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -10095,14 +10102,14 @@
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="E403" t="s">
         <v>2</v>
       </c>
       <c r="F403" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[402] = "因你一切的命令盡都公義。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[402] = "願我的舌頭歌唱你的話，";</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -10116,14 +10123,14 @@
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="E404" t="s">
         <v>2</v>
       </c>
       <c r="F404" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[403] = "願你用手幫助我，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[403] = "因你一切的命令盡都公義。";</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -10137,14 +10144,14 @@
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="E405" t="s">
         <v>2</v>
       </c>
       <c r="F405" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[404] = "因我揀選了你的訓詞。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[404] = "願你用手幫助我，";</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -10158,14 +10165,14 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E406" t="s">
         <v>2</v>
       </c>
       <c r="F406" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[405] = "耶和華啊，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[405] = "因我揀選了你的訓詞。";</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -10179,14 +10186,14 @@
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="E407" t="s">
         <v>2</v>
       </c>
       <c r="F407" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[406] = "我切慕你的救恩！";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[406] = "耶和華啊，";</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -10200,14 +10207,14 @@
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E408" t="s">
         <v>2</v>
       </c>
       <c r="F408" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[407] = "你的律法也是我所喜愛的。";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[407] = "我切慕你的救恩！";</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -10221,14 +10228,14 @@
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="E409" t="s">
         <v>2</v>
       </c>
       <c r="F409" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[408] = "願我的性命存活，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[408] = "你的律法也是我所喜愛的。";</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -10242,14 +10249,14 @@
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>392</v>
+        <v>268</v>
       </c>
       <c r="E410" t="s">
         <v>2</v>
       </c>
       <c r="F410" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[409] = "得以讚美你！";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[409] = "願我的性命存活，";</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,14 +10270,14 @@
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E411" t="s">
         <v>2</v>
       </c>
       <c r="F411" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[410] = "願你的典章幫助我！";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[410] = "得以讚美你！";</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -10284,14 +10291,14 @@
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>269</v>
+        <v>393</v>
       </c>
       <c r="E412" t="s">
         <v>2</v>
       </c>
       <c r="F412" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[411] = "我如亡羊走迷了路，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[411] = "願你的典章幫助我！";</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -10305,14 +10312,14 @@
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E413" t="s">
         <v>2</v>
       </c>
       <c r="F413" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[412] = "求你尋找僕人，";</v>
+        <f t="shared" si="8"/>
+        <v>Sentence[412] = "我如亡羊走迷了路，";</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -10326,19 +10333,41 @@
         <v>1</v>
       </c>
       <c r="D414" t="s">
+        <v>300</v>
+      </c>
+      <c r="E414" t="s">
+        <v>2</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="8"/>
+        <v>Sentence[413] = "求你尋找僕人，";</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>0</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
         <v>146</v>
       </c>
-      <c r="E414" t="s">
-        <v>2</v>
-      </c>
-      <c r="F414" t="str">
-        <f t="shared" si="7"/>
-        <v>Sentence[413] = "因我不忘記你的命令。";</v>
+      <c r="E415" t="s">
+        <v>2</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="8"/>
+        <v>Sentence[414] = "因我不忘記你的命令。";</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
